--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/K/k_data.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/K/k_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\R_coding\[사업] 2023_혼합음료\4. 양이온 표시기준 실제값 차이(Log변환)\K\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_analysis\Log chart_양이온 표시기준 실제값 차이(Log변환)\K\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,236 +24,6 @@
     <t>name_new</t>
   </si>
   <si>
-    <t>m-AB</t>
-  </si>
-  <si>
-    <t>m-AC</t>
-  </si>
-  <si>
-    <t>m-AD</t>
-  </si>
-  <si>
-    <t>m-AE</t>
-  </si>
-  <si>
-    <t>m-AF</t>
-  </si>
-  <si>
-    <t>m-AG</t>
-  </si>
-  <si>
-    <t>m-AH</t>
-  </si>
-  <si>
-    <t>m-AI</t>
-  </si>
-  <si>
-    <t>m-AJ</t>
-  </si>
-  <si>
-    <t>m-AK</t>
-  </si>
-  <si>
-    <t>m-AL</t>
-  </si>
-  <si>
-    <t>m-AM</t>
-  </si>
-  <si>
-    <t>m-AN</t>
-  </si>
-  <si>
-    <t>m-AO</t>
-  </si>
-  <si>
-    <t>m-AP</t>
-  </si>
-  <si>
-    <t>m-AQ</t>
-  </si>
-  <si>
-    <t>m-AR</t>
-  </si>
-  <si>
-    <t>m-AS</t>
-  </si>
-  <si>
-    <t>m-AT</t>
-  </si>
-  <si>
-    <t>m-AU</t>
-  </si>
-  <si>
-    <t>m-AV</t>
-  </si>
-  <si>
-    <t>m-AW</t>
-  </si>
-  <si>
-    <t>m-AX</t>
-  </si>
-  <si>
-    <t>m-AY</t>
-  </si>
-  <si>
-    <t>m-AZ</t>
-  </si>
-  <si>
-    <t>m-BC</t>
-  </si>
-  <si>
-    <t>m-BD</t>
-  </si>
-  <si>
-    <t>m-BE</t>
-  </si>
-  <si>
-    <t>m-CQ</t>
-  </si>
-  <si>
-    <t>m-BG</t>
-  </si>
-  <si>
-    <t>m-BH</t>
-  </si>
-  <si>
-    <t>m-BI</t>
-  </si>
-  <si>
-    <t>m-BJ</t>
-  </si>
-  <si>
-    <t>m-BK</t>
-  </si>
-  <si>
-    <t>d-CW</t>
-  </si>
-  <si>
-    <t>d-CY</t>
-  </si>
-  <si>
-    <t>d-DF</t>
-  </si>
-  <si>
-    <t>d-DI</t>
-  </si>
-  <si>
-    <t>d-DJ</t>
-  </si>
-  <si>
-    <t>d-DK</t>
-  </si>
-  <si>
-    <t>d-DO</t>
-  </si>
-  <si>
-    <t>d-DQ</t>
-  </si>
-  <si>
-    <t>d-DS</t>
-  </si>
-  <si>
-    <t>d-DU</t>
-  </si>
-  <si>
-    <t>d-DV</t>
-  </si>
-  <si>
-    <t>d-DW</t>
-  </si>
-  <si>
-    <t>d-DX</t>
-  </si>
-  <si>
-    <t>d-DY</t>
-  </si>
-  <si>
-    <t>d-DZ</t>
-  </si>
-  <si>
-    <t>d-EF</t>
-  </si>
-  <si>
-    <t>d-EG</t>
-  </si>
-  <si>
-    <t>d-EH</t>
-  </si>
-  <si>
-    <t>d-EK</t>
-  </si>
-  <si>
-    <t>d-EN</t>
-  </si>
-  <si>
-    <t>d-EO</t>
-  </si>
-  <si>
-    <t>d-EP</t>
-  </si>
-  <si>
-    <t>d-EV</t>
-  </si>
-  <si>
-    <t>d-EY</t>
-  </si>
-  <si>
-    <t>d-FG</t>
-  </si>
-  <si>
-    <t>d-FJ</t>
-  </si>
-  <si>
-    <t>d-FY</t>
-  </si>
-  <si>
-    <t>d-GH</t>
-  </si>
-  <si>
-    <t>d-GI</t>
-  </si>
-  <si>
-    <t>d-GK</t>
-  </si>
-  <si>
-    <t>d-GO</t>
-  </si>
-  <si>
-    <t>d-GP</t>
-  </si>
-  <si>
-    <t>d-GR</t>
-  </si>
-  <si>
-    <t>d-GT</t>
-  </si>
-  <si>
-    <t>d-GU</t>
-  </si>
-  <si>
-    <t>d-GV</t>
-  </si>
-  <si>
-    <t>d-GX</t>
-  </si>
-  <si>
-    <t>d-GZ</t>
-  </si>
-  <si>
-    <t>d-HM</t>
-  </si>
-  <si>
-    <t>d-HO</t>
-  </si>
-  <si>
-    <t>Mixed water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drinking water</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Sample</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -262,6 +32,234 @@
   </si>
   <si>
     <t>K_max</t>
+  </si>
+  <si>
+    <t>M-AB</t>
+  </si>
+  <si>
+    <t>M-AC</t>
+  </si>
+  <si>
+    <t>M-AD</t>
+  </si>
+  <si>
+    <t>M-AE</t>
+  </si>
+  <si>
+    <t>M-AF</t>
+  </si>
+  <si>
+    <t>M-AG</t>
+  </si>
+  <si>
+    <t>M-AH</t>
+  </si>
+  <si>
+    <t>M-AI</t>
+  </si>
+  <si>
+    <t>M-AJ</t>
+  </si>
+  <si>
+    <t>M-AK</t>
+  </si>
+  <si>
+    <t>M-AL</t>
+  </si>
+  <si>
+    <t>M-AM</t>
+  </si>
+  <si>
+    <t>M-AN</t>
+  </si>
+  <si>
+    <t>M-AO</t>
+  </si>
+  <si>
+    <t>M-AP</t>
+  </si>
+  <si>
+    <t>M-AQ</t>
+  </si>
+  <si>
+    <t>M-AR</t>
+  </si>
+  <si>
+    <t>M-AS</t>
+  </si>
+  <si>
+    <t>M-AT</t>
+  </si>
+  <si>
+    <t>M-AU</t>
+  </si>
+  <si>
+    <t>M-AV</t>
+  </si>
+  <si>
+    <t>M-AW</t>
+  </si>
+  <si>
+    <t>M-AX</t>
+  </si>
+  <si>
+    <t>M-AY</t>
+  </si>
+  <si>
+    <t>M-AZ</t>
+  </si>
+  <si>
+    <t>M-BC</t>
+  </si>
+  <si>
+    <t>M-BD</t>
+  </si>
+  <si>
+    <t>M-BE</t>
+  </si>
+  <si>
+    <t>M-CQ</t>
+  </si>
+  <si>
+    <t>M-BG</t>
+  </si>
+  <si>
+    <t>M-BH</t>
+  </si>
+  <si>
+    <t>M-BI</t>
+  </si>
+  <si>
+    <t>M-BJ</t>
+  </si>
+  <si>
+    <t>M-BK</t>
+  </si>
+  <si>
+    <t>B-CW</t>
+  </si>
+  <si>
+    <t>B-CY</t>
+  </si>
+  <si>
+    <t>B-DF</t>
+  </si>
+  <si>
+    <t>B-DI</t>
+  </si>
+  <si>
+    <t>B-DJ</t>
+  </si>
+  <si>
+    <t>B-DK</t>
+  </si>
+  <si>
+    <t>B-DO</t>
+  </si>
+  <si>
+    <t>B-DQ</t>
+  </si>
+  <si>
+    <t>B-DS</t>
+  </si>
+  <si>
+    <t>B-DU</t>
+  </si>
+  <si>
+    <t>B-DV</t>
+  </si>
+  <si>
+    <t>B-DW</t>
+  </si>
+  <si>
+    <t>B-DX</t>
+  </si>
+  <si>
+    <t>B-DY</t>
+  </si>
+  <si>
+    <t>B-DZ</t>
+  </si>
+  <si>
+    <t>B-EF</t>
+  </si>
+  <si>
+    <t>B-EG</t>
+  </si>
+  <si>
+    <t>B-EH</t>
+  </si>
+  <si>
+    <t>B-EK</t>
+  </si>
+  <si>
+    <t>B-EN</t>
+  </si>
+  <si>
+    <t>B-EO</t>
+  </si>
+  <si>
+    <t>B-EP</t>
+  </si>
+  <si>
+    <t>B-EV</t>
+  </si>
+  <si>
+    <t>B-EY</t>
+  </si>
+  <si>
+    <t>B-FG</t>
+  </si>
+  <si>
+    <t>B-FJ</t>
+  </si>
+  <si>
+    <t>B-FY</t>
+  </si>
+  <si>
+    <t>B-GH</t>
+  </si>
+  <si>
+    <t>B-GI</t>
+  </si>
+  <si>
+    <t>B-GK</t>
+  </si>
+  <si>
+    <t>B-GO</t>
+  </si>
+  <si>
+    <t>B-GP</t>
+  </si>
+  <si>
+    <t>B-GR</t>
+  </si>
+  <si>
+    <t>B-GT</t>
+  </si>
+  <si>
+    <t>B-GU</t>
+  </si>
+  <si>
+    <t>B-GV</t>
+  </si>
+  <si>
+    <t>B-GX</t>
+  </si>
+  <si>
+    <t>B-GZ</t>
+  </si>
+  <si>
+    <t>B-HM</t>
+  </si>
+  <si>
+    <t>B-HO</t>
+  </si>
+  <si>
+    <t>Mineral-infused water</t>
+  </si>
+  <si>
+    <t>Bottled water</t>
   </si>
 </sst>
 </file>
@@ -594,8 +592,8 @@
   </sheetPr>
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -607,24 +605,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>0.97379309737347886</v>
@@ -635,10 +633,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>0.178448672339034</v>
@@ -649,10 +647,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>1.6981872011130621</v>
@@ -663,10 +661,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>0.86523312826209453</v>
@@ -677,10 +675,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>5.2216974320492366E-3</v>
@@ -691,10 +689,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>-6.1288530315310036E-4</v>
@@ -705,10 +703,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>0.1575223458687757</v>
@@ -717,10 +715,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>2.2610665507778308E-3</v>
@@ -731,10 +729,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>4.81882885127173E-3</v>
@@ -745,10 +743,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>0.43175695951783599</v>
@@ -757,10 +755,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>0.43235656648398352</v>
@@ -769,10 +767,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>20.97358492521246</v>
@@ -783,10 +781,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
         <v>0.83896771793852931</v>
@@ -795,10 +793,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>0.57489648160237861</v>
@@ -807,10 +805,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>0.35289727703968959</v>
@@ -819,10 +817,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
         <v>1.4706929091102441</v>
@@ -833,10 +831,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3">
         <v>1.6909126875464551</v>
@@ -847,10 +845,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3">
         <v>2.4486229558454742</v>
@@ -859,10 +857,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3">
         <v>0.89232097315378078</v>
@@ -871,10 +869,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
         <v>1.574108105671524</v>
@@ -885,10 +883,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3">
         <v>0.34799789987173768</v>
@@ -899,10 +897,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3">
         <v>0.96929520455464713</v>
@@ -913,10 +911,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3">
         <v>0.96585436561113747</v>
@@ -927,10 +925,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3">
         <v>2.3627872393352169</v>
@@ -941,10 +939,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3">
         <v>1.670970975279267</v>
@@ -955,10 +953,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3">
         <v>0.80630126045541017</v>
@@ -969,10 +967,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C28" s="3">
         <v>0.56642109437384069</v>
@@ -981,10 +979,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <v>5.437795134403193</v>
@@ -993,10 +991,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3">
         <v>5.1769338160689129</v>
@@ -1007,10 +1005,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3">
         <v>2.398601644568402</v>
@@ -1021,10 +1019,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" s="3">
         <v>0.89093994447164493</v>
@@ -1033,10 +1031,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3">
         <v>4.486567771174934E-2</v>
@@ -1045,10 +1043,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3">
         <v>0.35635451697897153</v>
@@ -1059,10 +1057,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3">
         <v>1.999318567828968</v>
@@ -1071,10 +1069,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3">
         <v>0.63392181129995206</v>
@@ -1085,10 +1083,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C37" s="3">
         <v>0.56319931272910295</v>
@@ -1099,10 +1097,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C38" s="3">
         <v>1.0010926633650039</v>
@@ -1113,10 +1111,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C39" s="3">
         <v>0.98655372368773298</v>
@@ -1127,10 +1125,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3">
         <v>0.54927456280399189</v>
@@ -1141,10 +1139,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C41" s="3">
         <v>1.051871211670413</v>
@@ -1155,10 +1153,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C42" s="3">
         <v>0.94977359659895688</v>
@@ -1169,10 +1167,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C43" s="3">
         <v>1.0169036396360509</v>
@@ -1183,10 +1181,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3">
         <v>1.08661482091884</v>
@@ -1197,10 +1195,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C45" s="3">
         <v>1.0848785153406739</v>
@@ -1211,10 +1209,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C46" s="3">
         <v>2.2835712619237389</v>
@@ -1225,10 +1223,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C47" s="3">
         <v>2.286207800381443</v>
@@ -1239,10 +1237,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C48" s="3">
         <v>2.3009493700213501</v>
@@ -1253,10 +1251,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C49" s="3">
         <v>2.2935302288552131</v>
@@ -1267,10 +1265,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C50" s="3">
         <v>0.56581071951110662</v>
@@ -1281,10 +1279,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C51" s="3">
         <v>0.57728039874966164</v>
@@ -1295,10 +1293,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C52" s="3">
         <v>0.8395521845234778</v>
@@ -1309,10 +1307,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3">
         <v>0.79578842184980003</v>
@@ -1323,10 +1321,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C54" s="3">
         <v>0.34502240813292712</v>
@@ -1337,10 +1335,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C55" s="3">
         <v>1.0891848728246141</v>
@@ -1351,10 +1349,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C56" s="3">
         <v>1.1697699532619821</v>
@@ -1365,10 +1363,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C57" s="3">
         <v>0.51355199381962779</v>
@@ -1379,10 +1377,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C58" s="3">
         <v>0.98151201875359229</v>
@@ -1393,10 +1391,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C59" s="3">
         <v>1.198001493054766</v>
@@ -1405,10 +1403,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C60" s="3">
         <v>0.33335369404690768</v>
@@ -1419,10 +1417,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C61" s="3">
         <v>0.85410838160707259</v>
@@ -1433,10 +1431,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C62" s="3">
         <v>0.38998189845590647</v>
@@ -1447,10 +1445,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C63" s="3">
         <v>0.6597560500876728</v>
@@ -1461,10 +1459,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3">
         <v>1.418769988607506</v>
@@ -1475,10 +1473,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C65" s="3">
         <v>1.3912063409868369</v>
@@ -1489,10 +1487,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C66" s="3">
         <v>1.396484172644114</v>
@@ -1503,10 +1501,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C67" s="3">
         <v>0.45790948424971822</v>
@@ -1517,10 +1515,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C68" s="3">
         <v>0.50263867477883573</v>
@@ -1531,10 +1529,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C69" s="3">
         <v>0.54112495776568181</v>
@@ -1545,10 +1543,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C70" s="3">
         <v>0.52484367624478878</v>
@@ -1559,10 +1557,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C71" s="3">
         <v>0.71781433510443604</v>
@@ -1573,10 +1571,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C72" s="3">
         <v>3.2809434871980532</v>
@@ -1587,10 +1585,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C73" s="3">
         <v>3.3713855125764591</v>
@@ -1601,10 +1599,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C74" s="3">
         <v>3.5491176656133949</v>
@@ -1615,10 +1613,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C75" s="3">
         <v>3.5451641020697879</v>
@@ -1629,10 +1627,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C76" s="3">
         <v>3.5258007252507428</v>
@@ -1643,10 +1641,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C77" s="3">
         <v>3.6041895141849749</v>
@@ -1657,10 +1655,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C78" s="3">
         <v>0.85045425505962002</v>
@@ -1671,10 +1669,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C79" s="3">
         <v>1.038071813880199</v>
@@ -1685,10 +1683,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C80" s="3">
         <v>0.70934571394166601</v>
@@ -1699,10 +1697,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C81" s="3">
         <v>0.59214442171447679</v>
@@ -1713,10 +1711,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C82" s="3">
         <v>1.3490801050136489</v>
@@ -1727,10 +1725,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C83" s="3">
         <v>1.4975147815896781</v>
@@ -1741,10 +1739,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C84" s="3">
         <v>0.59362236842410032</v>
@@ -1755,10 +1753,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C85" s="3">
         <v>1.6599108806421241</v>
@@ -1769,10 +1767,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C86" s="3">
         <v>2.3250594448728048</v>
@@ -1783,10 +1781,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C87" s="3">
         <v>2.2424469208219571</v>
@@ -1797,10 +1795,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C88" s="3">
         <v>2.281863604376372</v>
@@ -1811,10 +1809,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C89" s="3">
         <v>2.1910998674035458</v>
@@ -1825,10 +1823,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C90" s="3">
         <v>2.1374773556193229</v>
@@ -1839,10 +1837,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C91" s="3">
         <v>2.2072555530897109</v>
@@ -1853,10 +1851,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C92" s="3">
         <v>0.72863521290644773</v>
@@ -1867,10 +1865,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C93" s="3">
         <v>0.71077336819063996</v>
@@ -1881,10 +1879,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C94" s="3">
         <v>0.74675474560612221</v>
@@ -1895,10 +1893,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C95" s="3">
         <v>0.80679789297182125</v>
@@ -1909,10 +1907,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C96" s="3">
         <v>0.7044143250506899</v>
@@ -1923,10 +1921,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C97" s="3">
         <v>0.66362435535969666</v>
@@ -1937,10 +1935,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C98" s="3">
         <v>0.63919918202101011</v>
@@ -1951,10 +1949,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C99" s="3">
         <v>0.63738818087099791</v>
@@ -1965,10 +1963,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C100" s="3">
         <v>0.63472131010817689</v>
@@ -1979,10 +1977,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C101" s="3">
         <v>1.559524097762252</v>
@@ -1993,10 +1991,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C102" s="3">
         <v>1.520810033326607</v>
@@ -2007,10 +2005,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C103" s="3">
         <v>0.74723053044736643</v>
@@ -2021,10 +2019,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C104" s="3">
         <v>1.169173214155369</v>
@@ -2033,10 +2031,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C105" s="3">
         <v>0.77755407932192455</v>
@@ -2047,10 +2045,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C106" s="3">
         <v>0.55693482771188718</v>
@@ -2061,10 +2059,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C107" s="3">
         <v>1.32785121091747</v>
@@ -2075,10 +2073,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C108" s="3">
         <v>0.55532353211491337</v>
@@ -2089,10 +2087,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C109" s="3">
         <v>1.5069385796422119</v>
@@ -2103,10 +2101,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C110" s="3">
         <v>0.27464242275389661</v>
@@ -2117,10 +2115,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C111" s="3">
         <v>1.510785469341198</v>
@@ -2131,10 +2129,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C112" s="3">
         <v>1.5267868907401669</v>
@@ -2145,10 +2143,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C113" s="3">
         <v>0.2381412158390917</v>
@@ -2159,10 +2157,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C114" s="3">
         <v>4.4292522542048047</v>
@@ -2173,10 +2171,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C115" s="3">
         <v>1.1024222399120369</v>
@@ -2187,10 +2185,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C116" s="3">
         <v>0.69822862040037226</v>
@@ -2201,10 +2199,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C117" s="3">
         <v>0.70466939575558207</v>
@@ -2215,10 +2213,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C118" s="3">
         <v>0.68696728992429767</v>
@@ -2229,10 +2227,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C119" s="3">
         <v>0.94411180487908319</v>
@@ -2243,10 +2241,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C120" s="3">
         <v>0.94579968908455647</v>
@@ -2257,10 +2255,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C121" s="3">
         <v>3.7005513270631218</v>
@@ -2271,10 +2269,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C122" s="3">
         <v>3.6979260860556269</v>
@@ -2285,10 +2283,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C123" s="3">
         <v>0.93061275488453143</v>
@@ -2299,10 +2297,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C124" s="3">
         <v>1.375182797408824</v>
@@ -2313,10 +2311,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C125" s="3">
         <v>1.391824707904431</v>
@@ -2327,10 +2325,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="C126" s="3">
         <v>0.79111565612609214</v>
@@ -2341,10 +2339,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C127" s="3">
         <v>1.0655498076600201</v>
@@ -2355,10 +2353,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C128" s="3">
         <v>0.73483660756800129</v>
@@ -2369,10 +2367,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C129" s="3">
         <v>0.70854189573893844</v>
@@ -2383,10 +2381,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C130" s="3">
         <v>0.73377322842721193</v>
@@ -2397,10 +2395,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C131" s="3">
         <v>0.728064139647565</v>
@@ -2411,10 +2409,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C132" s="3">
         <v>0.74123612995638144</v>
@@ -2425,10 +2423,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C133" s="3">
         <v>0.72261268535116818</v>
@@ -2439,10 +2437,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C134" s="3">
         <v>0.72974491464407265</v>
@@ -2453,10 +2451,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C135" s="3">
         <v>0.72322505240196866</v>
@@ -2467,10 +2465,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C136" s="3">
         <v>0.77247150771930961</v>

--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/K/k_data.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/Log chart_양이온 표시기준 실제값 차이(Log변환)/K/k_data.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="82">
   <si>
     <t>name_new</t>
   </si>
@@ -260,13 +260,24 @@
   </si>
   <si>
     <t>Bottled water</t>
+  </si>
+  <si>
+    <t>K_min</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_ave</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -297,6 +308,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
@@ -353,23 +372,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -590,10 +616,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -603,7 +629,7 @@
     <col min="3" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -616,12 +642,18 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3">
@@ -630,12 +662,19 @@
       <c r="D2" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="E2" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F2" s="9">
+        <f>AVERAGE(D2:E2)</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3">
@@ -644,12 +683,19 @@
       <c r="D3" s="3">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F66" si="0">AVERAGE(D3:E3)</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3">
@@ -658,12 +704,19 @@
       <c r="D4" s="3">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="8">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3">
@@ -672,12 +725,19 @@
       <c r="D5" s="3">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="8">
+        <v>1.72</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
@@ -686,12 +746,19 @@
       <c r="D6" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
@@ -700,24 +767,33 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>0.1575223458687757</v>
       </c>
       <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3">
@@ -726,12 +802,19 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="E9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3">
@@ -740,36 +823,47 @@
       <c r="D10" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>0.43175695951783599</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>0.43235656648398352</v>
       </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3">
@@ -778,48 +872,61 @@
       <c r="D13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="E13" s="8">
+        <v>12</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="3">
         <v>0.83896771793852931</v>
       </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>0.57489648160237861</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>0.35289727703968959</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3">
@@ -828,12 +935,19 @@
       <c r="D17" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="E17" s="8">
+        <v>15</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="3">
@@ -842,36 +956,47 @@
       <c r="D18" s="3">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="E18" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="3">
         <v>2.4486229558454742</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="3">
         <v>0.89232097315378078</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3">
@@ -880,12 +1005,19 @@
       <c r="D21" s="3">
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="E21" s="8">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="3">
@@ -894,12 +1026,19 @@
       <c r="D22" s="3">
         <v>7.92</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="E22" s="8">
+        <v>7.92</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="3">
@@ -908,12 +1047,19 @@
       <c r="D23" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="E23" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="3">
@@ -922,12 +1068,19 @@
       <c r="D24" s="3">
         <v>14.57</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="E24" s="8">
+        <v>7.66</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>11.115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="3">
@@ -936,12 +1089,19 @@
       <c r="D25" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="E25" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="3">
@@ -950,12 +1110,19 @@
       <c r="D26" s="3">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="E26" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="3">
@@ -964,36 +1131,47 @@
       <c r="D27" s="3">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="E27" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="3">
         <v>0.56642109437384069</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="3">
         <v>5.437795134403193</v>
       </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="3">
@@ -1002,12 +1180,19 @@
       <c r="D30" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="E30" s="8">
+        <v>5</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="3">
@@ -1016,36 +1201,47 @@
       <c r="D31" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="E31" s="8">
+        <v>2</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="3">
         <v>0.89093994447164493</v>
       </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="3">
         <v>4.486567771174934E-2</v>
       </c>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="3">
@@ -1054,24 +1250,33 @@
       <c r="D34" s="3">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="E34" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="3">
         <v>1.999318567828968</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="10"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="3">
@@ -1080,12 +1285,19 @@
       <c r="D36" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="3">
@@ -1094,12 +1306,19 @@
       <c r="D37" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C38" s="3">
@@ -1108,12 +1327,19 @@
       <c r="D38" s="3">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="3">
@@ -1122,12 +1348,19 @@
       <c r="D39" s="3">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="3">
@@ -1136,12 +1369,19 @@
       <c r="D40" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="3">
@@ -1150,12 +1390,19 @@
       <c r="D41" s="3">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="3">
@@ -1164,12 +1411,19 @@
       <c r="D42" s="3">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="3">
@@ -1178,12 +1432,19 @@
       <c r="D43" s="3">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="3">
@@ -1192,12 +1453,19 @@
       <c r="D44" s="3">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="3">
@@ -1206,12 +1474,19 @@
       <c r="D45" s="3">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C46" s="3">
@@ -1220,12 +1495,19 @@
       <c r="D46" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3499999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C47" s="3">
@@ -1234,12 +1516,19 @@
       <c r="D47" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3499999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="3">
@@ -1248,12 +1537,19 @@
       <c r="D48" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3499999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="3">
@@ -1262,12 +1558,19 @@
       <c r="D49" s="3">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="F49" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3499999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="3">
@@ -1276,12 +1579,19 @@
       <c r="D50" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="9">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C51" s="3">
@@ -1290,12 +1600,19 @@
       <c r="D51" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F51" s="9">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="3">
@@ -1304,12 +1621,19 @@
       <c r="D52" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F52" s="9">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="3">
@@ -1318,12 +1642,19 @@
       <c r="D53" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C54" s="3">
@@ -1332,12 +1663,19 @@
       <c r="D54" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C55" s="3">
@@ -1346,12 +1684,19 @@
       <c r="D55" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C56" s="3">
@@ -1360,12 +1705,19 @@
       <c r="D56" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C57" s="3">
@@ -1374,12 +1726,19 @@
       <c r="D57" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F57" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="3">
@@ -1388,24 +1747,33 @@
       <c r="D58" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="F58" s="9">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C59" s="3">
         <v>1.198001493054766</v>
       </c>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D59" s="10"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="7" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="3">
@@ -1414,12 +1782,19 @@
       <c r="D60" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C61" s="3">
@@ -1428,12 +1803,19 @@
       <c r="D61" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="F61" s="9">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C62" s="3">
@@ -1442,12 +1824,19 @@
       <c r="D62" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C63" s="3">
@@ -1456,12 +1845,19 @@
       <c r="D63" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="8">
+        <v>0</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C64" s="3">
@@ -1470,12 +1866,19 @@
       <c r="D64" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="3">
@@ -1484,12 +1887,19 @@
       <c r="D65" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F65" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="3">
@@ -1498,12 +1908,19 @@
       <c r="D66" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F66" s="9">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C67" s="3">
@@ -1512,12 +1929,19 @@
       <c r="D67" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F67" s="9">
+        <f t="shared" ref="F67:F130" si="1">AVERAGE(D67:E67)</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C68" s="3">
@@ -1526,12 +1950,19 @@
       <c r="D68" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F68" s="9">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="7" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="3">
@@ -1540,12 +1971,19 @@
       <c r="D69" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F69" s="9">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C70" s="3">
@@ -1554,12 +1992,19 @@
       <c r="D70" s="3">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F70" s="9">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C71" s="3">
@@ -1568,12 +2013,19 @@
       <c r="D71" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="F71" s="9">
+        <f t="shared" si="1"/>
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C72" s="3">
@@ -1582,12 +2034,19 @@
       <c r="D72" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F72" s="9">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C73" s="3">
@@ -1596,12 +2055,19 @@
       <c r="D73" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C74" s="3">
@@ -1610,12 +2076,19 @@
       <c r="D74" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C75" s="3">
@@ -1624,12 +2097,19 @@
       <c r="D75" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C76" s="3">
@@ -1638,12 +2118,19 @@
       <c r="D76" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F76" s="9">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C77" s="3">
@@ -1652,12 +2139,19 @@
       <c r="D77" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F77" s="9">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C78" s="3">
@@ -1666,12 +2160,19 @@
       <c r="D78" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F78" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C79" s="3">
@@ -1680,12 +2181,19 @@
       <c r="D79" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F79" s="9">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C80" s="3">
@@ -1694,12 +2202,19 @@
       <c r="D80" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="F80" s="9">
+        <f t="shared" si="1"/>
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C81" s="3">
@@ -1708,12 +2223,19 @@
       <c r="D81" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F81" s="9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C82" s="3">
@@ -1722,12 +2244,19 @@
       <c r="D82" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F82" s="9">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C83" s="3">
@@ -1736,12 +2265,19 @@
       <c r="D83" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F83" s="9">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C84" s="3">
@@ -1750,12 +2286,19 @@
       <c r="D84" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F84" s="9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C85" s="3">
@@ -1764,12 +2307,19 @@
       <c r="D85" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F85" s="9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C86" s="3">
@@ -1778,12 +2328,19 @@
       <c r="D86" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F86" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C87" s="3">
@@ -1792,12 +2349,19 @@
       <c r="D87" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F87" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C88" s="3">
@@ -1806,12 +2370,19 @@
       <c r="D88" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F88" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C89" s="3">
@@ -1820,12 +2391,19 @@
       <c r="D89" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F89" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C90" s="3">
@@ -1834,12 +2412,19 @@
       <c r="D90" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F90" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C91" s="3">
@@ -1848,12 +2433,19 @@
       <c r="D91" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F91" s="9">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C92" s="3">
@@ -1862,12 +2454,19 @@
       <c r="D92" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F92" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C93" s="3">
@@ -1876,12 +2475,19 @@
       <c r="D93" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F93" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C94" s="3">
@@ -1890,12 +2496,19 @@
       <c r="D94" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F94" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C95" s="3">
@@ -1904,12 +2517,19 @@
       <c r="D95" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F95" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C96" s="3">
@@ -1918,12 +2538,19 @@
       <c r="D96" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F96" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C97" s="3">
@@ -1932,12 +2559,19 @@
       <c r="D97" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F97" s="9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C98" s="3">
@@ -1946,12 +2580,19 @@
       <c r="D98" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F98" s="9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C99" s="3">
@@ -1960,12 +2601,19 @@
       <c r="D99" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F99" s="9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C100" s="3">
@@ -1974,12 +2622,19 @@
       <c r="D100" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F100" s="9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C101" s="3">
@@ -1988,12 +2643,19 @@
       <c r="D101" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F101" s="9">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C102" s="3">
@@ -2002,12 +2664,19 @@
       <c r="D102" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="F102" s="9">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C103" s="3">
@@ -2016,24 +2685,33 @@
       <c r="D103" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F103" s="9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C104" s="3">
         <v>1.169173214155369</v>
       </c>
-      <c r="D104" s="7"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D104" s="10"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C105" s="3">
@@ -2042,12 +2720,19 @@
       <c r="D105" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="F105" s="9">
+        <f t="shared" si="1"/>
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C106" s="3">
@@ -2056,12 +2741,19 @@
       <c r="D106" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F106" s="9">
+        <f t="shared" si="1"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C107" s="3">
@@ -2070,12 +2762,19 @@
       <c r="D107" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F107" s="9">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C108" s="3">
@@ -2084,12 +2783,19 @@
       <c r="D108" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F108" s="9">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C109" s="3">
@@ -2098,12 +2804,19 @@
       <c r="D109" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F109" s="9">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C110" s="3">
@@ -2112,12 +2825,19 @@
       <c r="D110" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" s="8">
+        <v>2</v>
+      </c>
+      <c r="F110" s="9">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C111" s="3">
@@ -2126,12 +2846,19 @@
       <c r="D111" s="3">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" s="8">
+        <v>2.12</v>
+      </c>
+      <c r="F111" s="9">
+        <f t="shared" si="1"/>
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C112" s="3">
@@ -2140,12 +2867,19 @@
       <c r="D112" s="3">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="8">
+        <v>2.12</v>
+      </c>
+      <c r="F112" s="9">
+        <f t="shared" si="1"/>
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C113" s="3">
@@ -2154,12 +2888,19 @@
       <c r="D113" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="8">
+        <v>1</v>
+      </c>
+      <c r="F113" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C114" s="3">
@@ -2168,12 +2909,19 @@
       <c r="D114" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="8">
+        <v>2</v>
+      </c>
+      <c r="F114" s="9">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C115" s="3">
@@ -2182,12 +2930,19 @@
       <c r="D115" s="3">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="F115" s="9">
+        <f t="shared" si="1"/>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C116" s="3">
@@ -2196,12 +2951,19 @@
       <c r="D116" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F116" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C117" s="3">
@@ -2210,12 +2972,19 @@
       <c r="D117" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F117" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C118" s="3">
@@ -2224,12 +2993,19 @@
       <c r="D118" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F118" s="9">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C119" s="3">
@@ -2238,12 +3014,19 @@
       <c r="D119" s="3">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="F119" s="9">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C120" s="3">
@@ -2252,12 +3035,19 @@
       <c r="D120" s="3">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="F120" s="9">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C121" s="3">
@@ -2266,12 +3056,19 @@
       <c r="D121" s="3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="F121" s="9">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C122" s="3">
@@ -2280,12 +3077,19 @@
       <c r="D122" s="3">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="F122" s="9">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C123" s="3">
@@ -2294,12 +3098,19 @@
       <c r="D123" s="3">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="F123" s="9">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C124" s="3">
@@ -2308,12 +3119,19 @@
       <c r="D124" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F124" s="9">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C125" s="3">
@@ -2322,12 +3140,19 @@
       <c r="D125" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="F125" s="9">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C126" s="3">
@@ -2336,12 +3161,19 @@
       <c r="D126" s="3">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="F126" s="9">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C127" s="3">
@@ -2350,12 +3182,19 @@
       <c r="D127" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F127" s="9">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C128" s="3">
@@ -2364,12 +3203,19 @@
       <c r="D128" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F128" s="9">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C129" s="3">
@@ -2378,12 +3224,19 @@
       <c r="D129" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F129" s="9">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C130" s="3">
@@ -2392,12 +3245,19 @@
       <c r="D130" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F130" s="9">
+        <f t="shared" si="1"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C131" s="3">
@@ -2406,12 +3266,19 @@
       <c r="D131" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F131" s="9">
+        <f t="shared" ref="F131:F136" si="2">AVERAGE(D131:E131)</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C132" s="3">
@@ -2420,12 +3287,19 @@
       <c r="D132" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F132" s="9">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C133" s="3">
@@ -2434,12 +3308,19 @@
       <c r="D133" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F133" s="9">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C134" s="3">
@@ -2448,12 +3329,19 @@
       <c r="D134" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F134" s="9">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C135" s="3">
@@ -2462,12 +3350,19 @@
       <c r="D135" s="3">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="F135" s="9">
+        <f t="shared" si="2"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C136" s="3">
@@ -2475,11 +3370,21 @@
       </c>
       <c r="D136" s="3">
         <v>1.6</v>
+      </c>
+      <c r="E136" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F136" s="9">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2:F7 F9:F10 F13 F17:F18 F21:F27 F30:F31 F34 F36:F58 F60:F103 F105:F136" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>